--- a/01_Input/00_CO Validation/Iran - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Iran - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/alireza_mohammadi_undp_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{696420EF-8F51-4940-B3FE-F0CDA19E40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E21EDA7-8082-4A95-BE2A-C411FA3966C4}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{696420EF-8F51-4940-B3FE-F0CDA19E40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90184C2C-EA5A-4A38-8B60-9CA2D50B4CF8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>Project ID</t>
   </si>
@@ -165,7 +168,7 @@
 of ministry of power ( MoP</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>tCO2 saved</t>
@@ -180,6 +183,9 @@
   <si>
     <t xml:space="preserve">
 0.375 </t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <t>GEF: 4,000,000</t>
@@ -455,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -544,39 +550,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -593,16 +570,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -617,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -829,9 +810,6 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -853,6 +831,54 @@
     <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,9 +891,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,60 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,8 +1220,8 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D6"/>
+      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1277,16 +1246,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="77" customFormat="1" ht="45.75">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="96" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="82" t="s">
@@ -1304,34 +1273,34 @@
       <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="85" t="s">
+      <c r="N1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="85" t="s">
+      <c r="P1" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="84" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="5"/>
@@ -1353,19 +1322,19 @@
       <c r="AJ1" s="5"/>
     </row>
     <row r="2" spans="1:36" s="78" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="108">
+      <c r="A2" s="99">
         <v>63735</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="92">
         <v>4000000</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="90" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="79" t="s">
@@ -1421,17 +1390,17 @@
       <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:36" s="78" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="105" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="85">
         <v>0</v>
       </c>
       <c r="H3" s="79">
@@ -1473,11 +1442,11 @@
       <c r="AJ3" s="8"/>
     </row>
     <row r="4" spans="1:36" s="78" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="105" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="90" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="79" t="s">
@@ -1523,20 +1492,20 @@
       <c r="AJ4" s="8"/>
     </row>
     <row r="5" spans="1:36" s="78" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="106" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="87">
         <v>0</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="88">
         <v>20000</v>
       </c>
       <c r="I5" s="68" t="s">
@@ -1575,20 +1544,20 @@
       <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="1:36" s="78" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="107" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="87">
         <v>0</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="89">
         <v>146167</v>
       </c>
       <c r="I6" s="68" t="s">
@@ -1641,7 +1610,6 @@
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
       <c r="E8" s="70"/>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
@@ -1857,16 +1825,16 @@
       <c r="AJ1" s="72"/>
     </row>
     <row r="2" spans="1:36" s="54" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="110">
         <v>4000000</v>
       </c>
       <c r="E2" s="59" t="s">
@@ -1882,11 +1850,11 @@
       <c r="I2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="105" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="62"/>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="105" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="62"/>
@@ -1923,10 +1891,10 @@
       <c r="AJ2" s="69"/>
     </row>
     <row r="3" spans="1:36" s="54" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="96"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="59" t="s">
         <v>30</v>
       </c>
@@ -1942,9 +1910,9 @@
       <c r="I3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="95"/>
+      <c r="J3" s="105"/>
       <c r="K3" s="62"/>
-      <c r="L3" s="95"/>
+      <c r="L3" s="105"/>
       <c r="M3" s="62"/>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
@@ -1975,10 +1943,10 @@
       <c r="AJ3" s="69"/>
     </row>
     <row r="4" spans="1:36" s="54" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="96"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="59" t="s">
         <v>30</v>
       </c>
@@ -1992,9 +1960,9 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="64"/>
-      <c r="J4" s="95"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="62"/>
-      <c r="L4" s="95"/>
+      <c r="L4" s="105"/>
       <c r="M4" s="65"/>
       <c r="N4" s="69"/>
       <c r="O4" s="69" t="s">
@@ -2025,10 +1993,10 @@
       <c r="AJ4" s="69"/>
     </row>
     <row r="5" spans="1:36" s="54" customFormat="1" ht="39" customHeight="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="96"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="66" t="s">
         <v>35</v>
       </c>
@@ -2044,9 +2012,9 @@
       <c r="I5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="62"/>
-      <c r="L5" s="95"/>
+      <c r="L5" s="105"/>
       <c r="M5" s="65"/>
       <c r="N5" s="69"/>
       <c r="O5" s="69" t="s">
@@ -2077,12 +2045,12 @@
       <c r="AJ5" s="69"/>
     </row>
     <row r="6" spans="1:36" s="54" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="96"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" s="66" t="s">
         <v>39</v>
@@ -2096,9 +2064,9 @@
       <c r="I6" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="95"/>
+      <c r="J6" s="105"/>
       <c r="K6" s="62"/>
-      <c r="L6" s="95"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="65"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69" t="s">
@@ -2227,62 +2195,62 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="91"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="G18" s="25"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="G19" s="16"/>
       <c r="H19"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:9">
@@ -2487,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="46" t="s">
         <v>21</v>
@@ -2499,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>23</v>
@@ -2520,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="49" t="s">
         <v>32</v>
@@ -2541,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="51"/>
     </row>
@@ -2560,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="52" t="s">
         <v>37</v>
@@ -2575,13 +2543,13 @@
         <v>30</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="51">
         <v>0</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="52" t="s">
         <v>40</v>
@@ -2697,62 +2665,62 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="94"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="G20" s="25"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
       <c r="G21" s="16"/>
       <c r="H21"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="109"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:9">
@@ -2877,160 +2845,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="99" t="s">
-        <v>52</v>
+      <c r="A2" s="113" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="99"/>
+      <c r="A3" s="113"/>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="99"/>
+      <c r="A4" s="113"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="100" t="s">
-        <v>58</v>
+      <c r="A5" s="114" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="100"/>
+      <c r="A6" s="114"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="114"/>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="100"/>
+      <c r="A8" s="114"/>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="100"/>
+      <c r="A9" s="114"/>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="101" t="s">
-        <v>68</v>
+      <c r="A10" s="115" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="101"/>
+      <c r="A11" s="115"/>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="102" t="s">
-        <v>73</v>
+      <c r="A12" s="116" t="s">
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="102"/>
+      <c r="A13" s="116"/>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="102"/>
+      <c r="A14" s="116"/>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3045,26 +3013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3313,14 +3261,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532F36DD-ACCD-4FB5-BC3D-775EBA27E19D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532F36DD-ACCD-4FB5-BC3D-775EBA27E19D}"/>
 </file>
--- a/01_Input/00_CO Validation/Iran - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Iran - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/alireza_mohammadi_undp_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{696420EF-8F51-4940-B3FE-F0CDA19E40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{615068E2-4B8F-42A1-A819-6304AA50D64E}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{696420EF-8F51-4940-B3FE-F0CDA19E40C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D7B744-0346-4850-B12B-F9DC167D2EAF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>Project ID</t>
   </si>
@@ -124,7 +124,7 @@
     <t>GEF</t>
   </si>
   <si>
-    <t>Non-VF</t>
+    <t>VF</t>
   </si>
   <si>
     <t>Accelerating just energy transition</t>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>0063735</t>
-  </si>
-  <si>
-    <t>VF</t>
   </si>
   <si>
     <t>Incentives and Support</t>
@@ -928,6 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,7 +950,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,8 +1267,8 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1365,7 +1362,7 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="60.75">
       <c r="A2" s="97">
-        <v>63735</v>
+        <v>4018</v>
       </c>
       <c r="B2" s="97" t="s">
         <v>21</v>
@@ -1534,7 +1531,7 @@
       <c r="B6" s="92"/>
       <c r="C6" s="93"/>
       <c r="D6" s="94"/>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="110" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="95" t="s">
@@ -1814,16 +1811,16 @@
       <c r="AJ1" s="69"/>
     </row>
     <row r="2" spans="1:36" s="51" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="115">
+      <c r="D2" s="116">
         <v>4000000</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -1839,12 +1836,12 @@
       <c r="I2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="110" t="s">
+      <c r="J2" s="111" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="59"/>
-      <c r="L2" s="110" t="s">
-        <v>45</v>
+      <c r="L2" s="111" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="59"/>
       <c r="N2" s="66"/>
@@ -1856,7 +1853,7 @@
       </c>
       <c r="Q2" s="66"/>
       <c r="R2" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" s="66" t="s">
         <v>28</v>
@@ -1880,10 +1877,10 @@
       <c r="AJ2" s="66"/>
     </row>
     <row r="3" spans="1:36" s="51" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="115"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="56" t="s">
         <v>31</v>
       </c>
@@ -1894,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="110"/>
+      <c r="J3" s="111"/>
       <c r="K3" s="59"/>
-      <c r="L3" s="110"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="59"/>
       <c r="N3" s="66"/>
       <c r="O3" s="66" t="s">
         <v>27</v>
       </c>
       <c r="P3" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="66"/>
       <c r="R3" s="66"/>
@@ -1932,10 +1929,10 @@
       <c r="AJ3" s="66"/>
     </row>
     <row r="4" spans="1:36" s="51" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="116"/>
       <c r="E4" s="56" t="s">
         <v>31</v>
       </c>
@@ -1949,16 +1946,16 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="61"/>
-      <c r="J4" s="110"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="59"/>
-      <c r="L4" s="110"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="62"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66" t="s">
         <v>27</v>
       </c>
       <c r="P4" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="66"/>
       <c r="R4" s="66"/>
@@ -1982,12 +1979,12 @@
       <c r="AJ4" s="66"/>
     </row>
     <row r="5" spans="1:36" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="115"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>37</v>
@@ -2001,16 +1998,16 @@
       <c r="I5" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="110"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="59"/>
-      <c r="L5" s="110"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="62"/>
       <c r="N5" s="66"/>
       <c r="O5" s="66" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="66"/>
       <c r="R5" s="66"/>
@@ -2034,12 +2031,12 @@
       <c r="AJ5" s="66"/>
     </row>
     <row r="6" spans="1:36" s="51" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="115"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="63" t="s">
         <v>40</v>
@@ -2053,16 +2050,16 @@
       <c r="I6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="110"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="62"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="66"/>
       <c r="R6" s="66"/>
@@ -2184,62 +2181,62 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="115"/>
       <c r="F16" s="14"/>
       <c r="G16" s="13"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
       <c r="F17" s="14"/>
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="G18" s="22"/>
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
       <c r="G19" s="13"/>
       <c r="H19"/>
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:9">
@@ -2444,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>19</v>
@@ -2456,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>24</v>
@@ -2477,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="46" t="s">
         <v>33</v>
@@ -2498,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="48"/>
     </row>
@@ -2508,7 +2505,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>37</v>
@@ -2517,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="49" t="s">
         <v>38</v>
@@ -2532,13 +2529,13 @@
         <v>31</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="48">
         <v>0</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="49" t="s">
         <v>41</v>
@@ -2654,62 +2651,62 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
       <c r="F18" s="14"/>
       <c r="G18" s="13"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="111"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
       <c r="F19" s="14"/>
       <c r="G19" s="13"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
       <c r="G20" s="22"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="115"/>
       <c r="G21" s="13"/>
       <c r="H21"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="115"/>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:9">
@@ -2839,10 +2836,10 @@
     </row>
     <row r="2" spans="1:2" ht="30.75">
       <c r="A2" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2850,111 +2847,111 @@
         <v>31</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="103" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="103" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="103" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45.75">
       <c r="A6" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="103" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="103" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75">
       <c r="A7" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="103" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="103" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75">
       <c r="A8" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="103" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="103" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75">
       <c r="A9" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="103" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="103" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="120" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="120" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="120" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="120" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75">
       <c r="A12" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="103" t="s">
         <v>77</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="120" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="120" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="120" t="s">
         <v>84</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2962,31 +2959,31 @@
         <v>36</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="120" t="s">
         <v>87</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45.75">
       <c r="A19" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="120" t="s">
         <v>89</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="120" t="s">
         <v>91</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30.75">
@@ -2994,15 +2991,15 @@
         <v>19</v>
       </c>
       <c r="B21" s="121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="120" t="s">
         <v>94</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3020,19 +3017,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3057,6 +3043,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3136,6 +3123,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3279,14 +3271,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BBFE1BD-9BE7-450B-B956-AF3B3ABCBDB9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532F36DD-ACCD-4FB5-BC3D-775EBA27E19D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>